--- a/data/raw/vermont_raw_2023.xlsx
+++ b/data/raw/vermont_raw_2023.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://api.box.com/wopi/files/1828128767461/WOPIServiceId_TP_BOX_2/WOPIUserId_-/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ey239/Github/IMT/data/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="13_ncr:1_{F8EA9ACD-B656-B743-AFCC-3F880EA9E6C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1942E96E-4D0C-AA49-8814-292F17FB3721}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BAC4AA7-7751-B94D-91FE-CE5AF7540B99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="24040" yWindow="-27800" windowWidth="28040" windowHeight="26600" xr2:uid="{947B5A5F-3200-CF42-B262-2C68D72416C9}"/>
+    <workbookView xWindow="24040" yWindow="-21000" windowWidth="28040" windowHeight="21000" xr2:uid="{947B5A5F-3200-CF42-B262-2C68D72416C9}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -225,7 +225,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -250,6 +250,12 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -312,7 +318,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -327,6 +333,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -663,8 +670,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE291B63-E5CB-0A42-96EB-CDB4F17B374B}">
   <dimension ref="A1:P37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -728,7 +735,7 @@
       <c r="N1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="O1" s="9" t="s">
+      <c r="O1" s="4" t="s">
         <v>60</v>
       </c>
       <c r="P1" s="9" t="s">
@@ -778,8 +785,8 @@
       <c r="N2" s="4">
         <v>353.80799999999999</v>
       </c>
-      <c r="O2" s="4">
-        <v>15.4</v>
+      <c r="O2" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P2">
         <v>22.2</v>
@@ -828,8 +835,8 @@
       <c r="N3" s="4">
         <v>127.008</v>
       </c>
-      <c r="O3" s="4">
-        <v>26</v>
+      <c r="O3" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P3">
         <v>22.2</v>
@@ -878,8 +885,8 @@
       <c r="N4" s="4">
         <v>317.52</v>
       </c>
-      <c r="O4" s="4">
-        <v>20.100000000000001</v>
+      <c r="O4" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P4">
         <v>24.166666670000001</v>
@@ -928,8 +935,8 @@
       <c r="N5" s="4">
         <v>285.76799999999997</v>
       </c>
-      <c r="O5" s="4">
-        <v>18.2</v>
+      <c r="O5" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P5">
         <v>23.833333329999999</v>
@@ -978,8 +985,8 @@
       <c r="N6" s="4">
         <v>535.24800000000005</v>
       </c>
-      <c r="O6" s="4">
-        <v>15.7</v>
+      <c r="O6" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P6">
         <v>24.1</v>
@@ -1028,8 +1035,8 @@
       <c r="N7" s="4">
         <v>512.56799999999998</v>
       </c>
-      <c r="O7" s="4">
-        <v>19.2</v>
+      <c r="O7" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P7">
         <v>24.333333329999999</v>
@@ -1078,8 +1085,8 @@
       <c r="N8" s="4">
         <v>430.92</v>
       </c>
-      <c r="O8" s="4">
-        <v>13.3</v>
+      <c r="O8" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P8">
         <v>23.466666669999999</v>
@@ -1128,8 +1135,8 @@
       <c r="N9" s="4">
         <v>512.56799999999998</v>
       </c>
-      <c r="O9" s="4">
-        <v>24.3</v>
+      <c r="O9" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P9">
         <v>24.966666669999999</v>
@@ -1178,8 +1185,8 @@
       <c r="N10" s="4">
         <v>444.52800000000002</v>
       </c>
-      <c r="O10" s="4">
-        <v>22</v>
+      <c r="O10" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P10">
         <v>24.5</v>
@@ -1228,8 +1235,8 @@
       <c r="N11" s="4">
         <v>358.34399999999999</v>
       </c>
-      <c r="O11" s="4">
-        <v>23.4</v>
+      <c r="O11" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P11">
         <v>22.2</v>
@@ -1278,8 +1285,8 @@
       <c r="N12" s="4">
         <v>190.512</v>
       </c>
-      <c r="O12" s="4">
-        <v>16.899999999999999</v>
+      <c r="O12" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P12">
         <v>19.766666669999999</v>
@@ -1328,8 +1335,8 @@
       <c r="N13" s="4">
         <v>616.89599999999996</v>
       </c>
-      <c r="O13" s="4">
-        <v>20.8</v>
+      <c r="O13" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P13">
         <v>22.033333330000001</v>
@@ -1378,8 +1385,8 @@
       <c r="N14" s="4">
         <v>530.71199999999999</v>
       </c>
-      <c r="O14" s="4">
-        <v>12</v>
+      <c r="O14" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P14">
         <v>21.93333333</v>
@@ -1428,8 +1435,8 @@
       <c r="N15" s="4">
         <v>303.91199999999998</v>
       </c>
-      <c r="O15" s="4">
-        <v>12.5</v>
+      <c r="O15" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P15">
         <v>23.2</v>
@@ -1478,8 +1485,8 @@
       <c r="N16" s="4">
         <v>312.98399999999998</v>
       </c>
-      <c r="O16" s="4">
-        <v>13.2</v>
+      <c r="O16" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P16">
         <v>22.2</v>
@@ -1528,8 +1535,8 @@
       <c r="N17" s="4">
         <v>567</v>
       </c>
-      <c r="O17" s="4">
-        <v>11.7</v>
+      <c r="O17" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P17">
         <v>23.93333333</v>
@@ -1578,8 +1585,8 @@
       <c r="N18" s="4">
         <v>408.24</v>
       </c>
-      <c r="O18" s="4">
-        <v>16.7</v>
+      <c r="O18" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P18">
         <v>21.93333333</v>
@@ -1628,8 +1635,8 @@
       <c r="N19" s="4">
         <v>793.8</v>
       </c>
-      <c r="O19" s="4">
-        <v>20.100000000000001</v>
+      <c r="O19" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P19">
         <v>23.8</v>
@@ -1678,8 +1685,8 @@
       <c r="N20" s="4">
         <v>494.42399999999998</v>
       </c>
-      <c r="O20" s="4">
-        <v>21.3</v>
+      <c r="O20" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P20">
         <v>23.033333330000001</v>
@@ -1728,8 +1735,8 @@
       <c r="N21" s="4">
         <v>9.0719999999999992</v>
       </c>
-      <c r="O21" s="4">
-        <v>11.8</v>
+      <c r="O21" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P21" t="s">
         <v>59</v>
@@ -1778,8 +1785,8 @@
       <c r="N22" s="4">
         <v>494.42399999999998</v>
       </c>
-      <c r="O22" s="4">
-        <v>10.1</v>
+      <c r="O22" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P22">
         <v>23.366666670000001</v>
@@ -1828,8 +1835,8 @@
       <c r="N23" s="4">
         <v>639.57600000000002</v>
       </c>
-      <c r="O23" s="4">
-        <v>18.399999999999999</v>
+      <c r="O23" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P23">
         <v>23.966666669999999</v>
@@ -1878,8 +1885,8 @@
       <c r="N24" s="4">
         <v>417.31200000000001</v>
       </c>
-      <c r="O24" s="4">
-        <v>16.8</v>
+      <c r="O24" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P24">
         <v>23.266666669999999</v>
@@ -1928,8 +1935,8 @@
       <c r="N25" s="4">
         <v>353.80799999999999</v>
       </c>
-      <c r="O25" s="4">
-        <v>17.399999999999999</v>
+      <c r="O25" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P25">
         <v>24.43333333</v>
@@ -1978,8 +1985,8 @@
       <c r="N26" s="4">
         <v>503.49599999999998</v>
       </c>
-      <c r="O26" s="4">
-        <v>19.600000000000001</v>
+      <c r="O26" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P26">
         <v>24.166666670000001</v>
@@ -2028,8 +2035,8 @@
       <c r="N27" s="4">
         <v>576.072</v>
       </c>
-      <c r="O27" s="4">
-        <v>17.399999999999999</v>
+      <c r="O27" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P27">
         <v>23.1</v>
@@ -2078,8 +2085,8 @@
       <c r="N28" s="4">
         <v>576.072</v>
       </c>
-      <c r="O28" s="4">
-        <v>20.7</v>
+      <c r="O28" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P28">
         <v>24.3</v>
@@ -2128,8 +2135,8 @@
       <c r="N29" s="4">
         <v>299.37599999999998</v>
       </c>
-      <c r="O29" s="4">
-        <v>17.8</v>
+      <c r="O29" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P29">
         <v>22.266666669999999</v>
@@ -2178,8 +2185,8 @@
       <c r="N30" s="4">
         <v>208.65600000000001</v>
       </c>
-      <c r="O30" s="4">
-        <v>22.2</v>
+      <c r="O30" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P30">
         <v>22.666666670000001</v>
@@ -2228,8 +2235,8 @@
       <c r="N31" s="4">
         <v>430.92</v>
       </c>
-      <c r="O31" s="4">
-        <v>19.899999999999999</v>
+      <c r="O31" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P31">
         <v>22.4</v>
@@ -2278,8 +2285,8 @@
       <c r="N32" s="4">
         <v>204.12</v>
       </c>
-      <c r="O32" s="4">
-        <v>14.7</v>
+      <c r="O32" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P32">
         <v>20.466666669999999</v>
@@ -2328,8 +2335,8 @@
       <c r="N33" s="4">
         <v>517.10400000000004</v>
       </c>
-      <c r="O33" s="4">
-        <v>16.600000000000001</v>
+      <c r="O33" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P33">
         <v>24.033333330000001</v>
@@ -2378,8 +2385,8 @@
       <c r="N34" s="4">
         <v>521.64</v>
       </c>
-      <c r="O34" s="4">
-        <v>13.4</v>
+      <c r="O34" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P34">
         <v>23.3</v>
@@ -2428,8 +2435,8 @@
       <c r="N35" s="4">
         <v>326.59199999999998</v>
       </c>
-      <c r="O35" s="4">
-        <v>16</v>
+      <c r="O35" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P35">
         <v>23.1</v>
@@ -2478,8 +2485,8 @@
       <c r="N36" s="4">
         <v>390.096</v>
       </c>
-      <c r="O36" s="4">
-        <v>14.6</v>
+      <c r="O36" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P36">
         <v>23.033333330000001</v>
@@ -2528,8 +2535,8 @@
       <c r="N37" s="4">
         <v>367.416</v>
       </c>
-      <c r="O37" s="4">
-        <v>17.100000000000001</v>
+      <c r="O37" s="10">
+        <v>1.0000000000000001E-5</v>
       </c>
       <c r="P37">
         <v>23.3</v>
